--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.RVT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP\Documents\GitHub\C-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LIFO</t>
-  </si>
-  <si>
-    <t>Random of 8</t>
   </si>
   <si>
     <t>FIFO</t>
@@ -57,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -89,17 +86,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,44 +410,56 @@
       </c>
       <c r="E2" s="1"/>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="B3" s="2">
         <v>50000</v>
       </c>
-      <c r="E3" s="2">
-        <v>5.9710000000000001</v>
-      </c>
+      <c r="C3" s="2">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.15579999999999999</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.1638</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>100000</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1837</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -446,8 +470,12 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>850000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2104</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -458,8 +486,12 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2482</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -494,11 +526,11 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -506,11 +538,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -518,11 +550,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -530,11 +562,11 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -542,11 +574,11 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -554,11 +586,11 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -566,11 +598,11 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -578,11 +610,11 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -590,16 +622,86 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP\Documents\GitHub\C-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\C-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>LIFO</t>
   </si>
   <si>
     <t>FIFO</t>
+  </si>
+  <si>
+    <t>0.02082</t>
+  </si>
+  <si>
+    <t>0.02815</t>
+  </si>
+  <si>
+    <t>0.08295</t>
+  </si>
+  <si>
+    <t>0.1287</t>
+  </si>
+  <si>
+    <t>0.2229</t>
+  </si>
+  <si>
+    <t>0.02135</t>
+  </si>
+  <si>
+    <t>0.0293</t>
+  </si>
+  <si>
+    <t>0.08866</t>
+  </si>
+  <si>
+    <t>0.1393</t>
+  </si>
+  <si>
+    <t>0.2394</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -54,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,43 +114,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -242,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,309 +433,343 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>50000</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2">
-        <v>50000</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.15579999999999999</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>100000</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.1638</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="I4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>500000</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.1837</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>850000</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.2104</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1500000</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.2482</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="B16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="B17" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="B18" s="2">
+        <v>500000</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>850000</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
